--- a/public/documents/pansuni-230419.xlsx
+++ b/public/documents/pansuni-230419.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="regions(지역)" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="670">
   <si>
     <t xml:space="preserve">r_no(지역번호)</t>
   </si>
@@ -119,35 +119,7 @@
     <t xml:space="preserve">이태리 빈티지 감성을 그대로 옮긴 베이글 전문점</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK KR"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">서울</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK KR"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">특별시</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK KR"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 영등포구 북촌로 4길 21</t>
-    </r>
+    <t xml:space="preserve">서울특별시 영등포구 북촌로 4길 21</t>
   </si>
   <si>
     <t xml:space="preserve">02-742-9653</t>
@@ -162,35 +134,7 @@
     <t xml:space="preserve">호주 빈티지 감성을 그대로 옮긴 베이글 전문점</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK KR"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">서울</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK KR"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">특별</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK KR"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">시 강동구 4길 22</t>
-    </r>
+    <t xml:space="preserve">서울특별시 강동구 4길 22</t>
   </si>
   <si>
     <t xml:space="preserve">02-742-9654</t>
@@ -205,35 +149,7 @@
     <t xml:space="preserve">한국 빈티지 감성을 그대로 베이커리 전문점</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK KR"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">서울</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK KR"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">특별</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK KR"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">시 강남구 북촌로 4길 23</t>
-    </r>
+    <t xml:space="preserve">서울특별시 강남구 북촌로 4길 23</t>
   </si>
   <si>
     <t xml:space="preserve">02-742-9655</t>
@@ -248,35 +164,7 @@
     <t xml:space="preserve">프랑스 감성을 그대로 옮긴 베이커리 전문점</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK KR"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">서울</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK KR"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">특별</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK KR"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">시 강북구 북촌로 4길 24</t>
-    </r>
+    <t xml:space="preserve">서울특별시 강북구 북촌로 4길 24</t>
   </si>
   <si>
     <t xml:space="preserve">02-742-9656</t>
@@ -291,35 +179,7 @@
     <t xml:space="preserve">미국 빈티지 감성을 그대로 옮긴 베이커리 전문점</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK KR"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">서울</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK KR"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">특별</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK KR"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">시 마포구 북촌로 4길 25</t>
-    </r>
+    <t xml:space="preserve">서울특별시 마포구 북촌로 4길 25</t>
   </si>
   <si>
     <t xml:space="preserve">02-742-9657</t>
@@ -378,35 +238,7 @@
     <t xml:space="preserve">부산을 대표하는 베이커리 빵집2</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK KR"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">부산</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK KR"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">광역</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK KR"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">시 부산진구 신선로 202</t>
-    </r>
+    <t xml:space="preserve">부산광역시 부산진구 신선로 202</t>
   </si>
   <si>
     <t xml:space="preserve">051-245-3658</t>
@@ -421,35 +253,7 @@
     <t xml:space="preserve">부산을 대표하는 베이커리 빵집3</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK KR"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">부산</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK KR"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">광역</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK KR"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">시 중구 중앙대로 81번길 3</t>
-    </r>
+    <t xml:space="preserve">부산광역시 중구 중앙대로 81번길 3</t>
   </si>
   <si>
     <t xml:space="preserve">051-245-3659</t>
@@ -458,38 +262,13 @@
     <t xml:space="preserve">s_img_009</t>
   </si>
   <si>
+    <t xml:space="preserve">구엔스</t>
+  </si>
+  <si>
     <t xml:space="preserve">부산을 대표하는 베이커리 빵집4</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK KR"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">부산</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK KR"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">광역</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK KR"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">시 남구 신선로 201</t>
-    </r>
+    <t xml:space="preserve">부산광역시 남구 신선로 201</t>
   </si>
   <si>
     <t xml:space="preserve">051-245-3660</t>
@@ -498,38 +277,13 @@
     <t xml:space="preserve">s_img_010</t>
   </si>
   <si>
+    <t xml:space="preserve">태원제과</t>
+  </si>
+  <si>
     <t xml:space="preserve">부산을 대표하는 베이커리 빵집5</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK KR"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">부산</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK KR"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">광역</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK KR"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">시 해운대구 신선로 205</t>
-    </r>
+    <t xml:space="preserve">부산광역시 해운대구 신선로 205</t>
   </si>
   <si>
     <t xml:space="preserve">051-245-3661</t>
@@ -538,38 +292,13 @@
     <t xml:space="preserve">s_img_011</t>
   </si>
   <si>
+    <t xml:space="preserve">영종빵집</t>
+  </si>
+  <si>
     <t xml:space="preserve">부산을 대표하는 베이커리 빵집6</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK KR"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">부산</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK KR"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">광역</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK KR"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">시 광안로 206</t>
-    </r>
+    <t xml:space="preserve">부산광역시 광안로 206</t>
   </si>
   <si>
     <t xml:space="preserve">051-245-3662</t>
@@ -584,35 +313,7 @@
     <t xml:space="preserve">대구를 대표하는 베이커리 빵집1</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK KR"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">대구</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK KR"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">광역</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK KR"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">시 중구 성내2동 경상감영길 40</t>
-    </r>
+    <t xml:space="preserve">대구광역시 중구 성내2동 경상감영길 40</t>
   </si>
   <si>
     <t xml:space="preserve">053-524-2587</t>
@@ -627,35 +328,7 @@
     <t xml:space="preserve">대구를 대표하는 베이커리 빵집2</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK KR"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">대구</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK KR"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">광역</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK KR"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">시 남구 대명2동 경상감영길 41</t>
-    </r>
+    <t xml:space="preserve">대구광역시 남구 대명2동 경상감영길 41</t>
   </si>
   <si>
     <t xml:space="preserve">053-524-2588</t>
@@ -670,35 +343,7 @@
     <t xml:space="preserve">대구를 대표하는 베이커리 빵집3</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK KR"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">대구</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK KR"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">광역</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK KR"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">시 중구 성내2동 경상감영길 42</t>
-    </r>
+    <t xml:space="preserve">대구광역시 중구 성내2동 경상감영길 42</t>
   </si>
   <si>
     <t xml:space="preserve">053-524-2589</t>
@@ -713,35 +358,7 @@
     <t xml:space="preserve">대구를 대표하는 베이글전문점4</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK KR"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">대구</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK KR"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">광역</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK KR"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">시 북구 성내2동 경상감영길 43</t>
-    </r>
+    <t xml:space="preserve">대구광역시 북구 성내2동 경상감영길 43</t>
   </si>
   <si>
     <t xml:space="preserve">053-524-2590</t>
@@ -756,35 +373,7 @@
     <t xml:space="preserve">대구를 대표하는 롤케익 카페빵집5</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK KR"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">대구</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK KR"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">광역</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK KR"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">시 서구 성내2동 경상감영길 44</t>
-    </r>
+    <t xml:space="preserve">대구광역시 서구 성내2동 경상감영길 44</t>
   </si>
   <si>
     <t xml:space="preserve">053-524-2591</t>
@@ -799,35 +388,7 @@
     <t xml:space="preserve">대구를 대표하는 베이글 빵집6</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK KR"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">대구</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK KR"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">광역</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK KR"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">시 수성구 성내2동 경상감영길 45</t>
-    </r>
+    <t xml:space="preserve">대구광역시 수성구 성내2동 경상감영길 45</t>
   </si>
   <si>
     <t xml:space="preserve">053-524-2592</t>
@@ -2517,7 +2078,7 @@
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="167" formatCode="0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2546,12 +2107,6 @@
       <name val="Noto Sans CJK KR"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans CJK KR"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2677,12 +2232,16 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -2693,7 +2252,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2701,11 +2260,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2717,28 +2276,24 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2824,7 +2379,7 @@
       <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.6"/>
@@ -2968,11 +2523,11 @@
   </sheetPr>
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.97"/>
@@ -3278,23 +2833,23 @@
       <c r="C11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>53</v>
+      <c r="D11" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>2</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3308,22 +2863,22 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>2</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3337,22 +2892,22 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>2</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3360,28 +2915,28 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>3</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3389,28 +2944,28 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C15" s="1" t="n">
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>3</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3418,28 +2973,28 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C16" s="1" t="n">
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>3</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3447,28 +3002,28 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C17" s="1" t="n">
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>3</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3476,28 +3031,28 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C18" s="1" t="n">
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>3</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3505,28 +3060,28 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E19" s="1" t="n">
         <v>3</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3534,28 +3089,28 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C20" s="1" t="n">
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E20" s="1" t="n">
         <v>4</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3563,28 +3118,28 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C21" s="1" t="n">
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>4</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3592,28 +3147,28 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C22" s="1" t="n">
         <v>21</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>4</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3621,28 +3176,28 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C23" s="1" t="n">
         <v>22</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E23" s="1" t="n">
         <v>4</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3650,28 +3205,28 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C24" s="1" t="n">
         <v>23</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E24" s="1" t="n">
         <v>4</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3679,28 +3234,28 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C25" s="1" t="n">
         <v>24</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E25" s="1" t="n">
         <v>4</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3708,28 +3263,28 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C26" s="1" t="n">
         <v>25</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E26" s="1" t="n">
         <v>5</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3737,28 +3292,28 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C27" s="1" t="n">
         <v>26</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E27" s="1" t="n">
         <v>5</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3766,28 +3321,28 @@
         <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C28" s="1" t="n">
         <v>27</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E28" s="1" t="n">
         <v>5</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3795,28 +3350,28 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C29" s="1" t="n">
         <v>28</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E29" s="1" t="n">
         <v>6</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3824,28 +3379,28 @@
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C30" s="1" t="n">
         <v>29</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E30" s="1" t="n">
         <v>6</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3853,28 +3408,28 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C31" s="1" t="n">
         <v>30</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E31" s="1" t="n">
         <v>6</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3882,28 +3437,28 @@
         <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C32" s="1" t="n">
         <v>31</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E32" s="1" t="n">
         <v>7</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3911,28 +3466,28 @@
         <v>32</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C33" s="1" t="n">
         <v>32</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E33" s="1" t="n">
         <v>7</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3940,28 +3495,28 @@
         <v>33</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C34" s="1" t="n">
         <v>33</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E34" s="1" t="n">
         <v>7</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3969,28 +3524,28 @@
         <v>34</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C35" s="1" t="n">
         <v>34</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E35" s="1" t="n">
         <v>8</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3998,28 +3553,28 @@
         <v>35</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C36" s="1" t="n">
         <v>35</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E36" s="1" t="n">
         <v>8</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4027,28 +3582,28 @@
         <v>36</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C37" s="1" t="n">
         <v>36</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E37" s="1" t="n">
         <v>8</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4056,28 +3611,28 @@
         <v>37</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C38" s="1" t="n">
         <v>37</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E38" s="1" t="n">
         <v>9</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4085,28 +3640,28 @@
         <v>38</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C39" s="1" t="n">
         <v>38</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E39" s="1" t="n">
         <v>9</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4114,28 +3669,28 @@
         <v>39</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C40" s="1" t="n">
         <v>39</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E40" s="1" t="n">
         <v>9</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4143,28 +3698,28 @@
         <v>40</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C41" s="1" t="n">
         <v>40</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E41" s="1" t="n">
         <v>10</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4172,28 +3727,28 @@
         <v>41</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C42" s="1" t="n">
         <v>41</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E42" s="1" t="n">
         <v>10</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4201,28 +3756,28 @@
         <v>42</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C43" s="1" t="n">
         <v>42</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E43" s="1" t="n">
         <v>10</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4230,28 +3785,28 @@
         <v>43</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C44" s="1" t="n">
         <v>43</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E44" s="1" t="n">
         <v>11</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4259,28 +3814,28 @@
         <v>44</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C45" s="1" t="n">
         <v>44</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E45" s="1" t="n">
         <v>11</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4288,28 +3843,28 @@
         <v>45</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C46" s="1" t="n">
         <v>45</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E46" s="1" t="n">
         <v>11</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4317,28 +3872,28 @@
         <v>46</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C47" s="1" t="n">
         <v>46</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E47" s="1" t="n">
         <v>12</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4346,28 +3901,28 @@
         <v>47</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C48" s="1" t="n">
         <v>47</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E48" s="1" t="n">
         <v>12</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4375,28 +3930,28 @@
         <v>48</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C49" s="1" t="n">
         <v>48</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E49" s="1" t="n">
         <v>12</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4404,28 +3959,28 @@
         <v>49</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C50" s="1" t="n">
         <v>49</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E50" s="1" t="n">
         <v>13</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4433,28 +3988,28 @@
         <v>50</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C51" s="1" t="n">
         <v>50</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E51" s="1" t="n">
         <v>13</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4462,28 +4017,28 @@
         <v>51</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C52" s="1" t="n">
         <v>51</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E52" s="1" t="n">
         <v>13</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4491,28 +4046,28 @@
         <v>52</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C53" s="1" t="n">
         <v>52</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E53" s="1" t="n">
         <v>14</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4520,28 +4075,28 @@
         <v>53</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C54" s="1" t="n">
         <v>53</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E54" s="1" t="n">
         <v>14</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4549,28 +4104,28 @@
         <v>54</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C55" s="1" t="n">
         <v>54</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E55" s="1" t="n">
         <v>14</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -4591,38 +4146,38 @@
   </sheetPr>
   <dimension ref="A1:I163"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="73.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.62"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4630,19 +4185,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>4900</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4650,19 +4205,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>3800</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4670,19 +4225,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>4300</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4690,19 +4245,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>4700</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>2</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4710,19 +4265,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>9900</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4730,19 +4285,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>25900</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4750,19 +4305,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>4800</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4770,19 +4325,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>4000</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>3</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4790,19 +4345,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>3800</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>3</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4810,19 +4365,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>2800</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>4</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4830,19 +4385,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>5500</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>4</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4850,19 +4405,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>3300</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>4</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4870,19 +4425,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>2800</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>5</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4890,19 +4445,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>3200</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>5</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4910,19 +4465,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>3800</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>5</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4930,19 +4485,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>3000</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>6</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4950,19 +4505,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>2500</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>6</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4970,19 +4525,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>2700</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E19" s="1" t="n">
         <v>6</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4990,19 +4545,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>25900</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E20" s="1" t="n">
         <v>7</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5010,19 +4565,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>4800</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>7</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5030,19 +4585,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>4000</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>7</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5050,19 +4605,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>3800</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E23" s="1" t="n">
         <v>8</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5070,19 +4625,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>2800</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E24" s="1" t="n">
         <v>8</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5090,19 +4645,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>4900</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E25" s="1" t="n">
         <v>8</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5110,19 +4665,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>3800</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E26" s="1" t="n">
         <v>9</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5130,40 +4685,40 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>4300</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E27" s="1" t="n">
         <v>9</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="I27" s="7"/>
+        <v>354</v>
+      </c>
+      <c r="I27" s="8"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>4700</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="E28" s="1" t="n">
         <v>9</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5171,19 +4726,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>9900</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E29" s="1" t="n">
         <v>10</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5191,19 +4746,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>3000</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E30" s="1" t="n">
         <v>10</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5211,19 +4766,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>2500</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="E31" s="1" t="n">
         <v>10</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5231,19 +4786,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>2700</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E32" s="1" t="n">
         <v>11</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5251,19 +4806,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>5500</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E33" s="1" t="n">
         <v>11</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5271,19 +4826,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>3300</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="E34" s="1" t="n">
         <v>11</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5291,19 +4846,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>2800</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="E35" s="1" t="n">
         <v>12</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5311,19 +4866,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>3200</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="E36" s="1" t="n">
         <v>12</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5331,19 +4886,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>3800</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="E37" s="1" t="n">
         <v>12</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5351,19 +4906,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>4300</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E38" s="1" t="n">
         <v>13</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5371,19 +4926,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>4700</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="E39" s="1" t="n">
         <v>13</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5391,19 +4946,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>9900</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E40" s="1" t="n">
         <v>13</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5411,19 +4966,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>25900</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E41" s="1" t="n">
         <v>14</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5431,19 +4986,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>4800</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E42" s="1" t="n">
         <v>14</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5451,19 +5006,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>4900</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E43" s="1" t="n">
         <v>14</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5471,19 +5026,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>3800</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E44" s="1" t="n">
         <v>15</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5491,19 +5046,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>5500</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E45" s="1" t="n">
         <v>15</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5511,19 +5066,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>3300</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="E46" s="1" t="n">
         <v>15</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5531,19 +5086,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>2800</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="E47" s="1" t="n">
         <v>16</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5551,19 +5106,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>4000</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E48" s="1" t="n">
         <v>16</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5571,19 +5126,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>3800</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E49" s="1" t="n">
         <v>16</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5591,19 +5146,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>2800</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E50" s="1" t="n">
         <v>17</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5611,19 +5166,19 @@
         <v>50</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>25900</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E51" s="1" t="n">
         <v>17</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5631,19 +5186,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>4800</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E52" s="1" t="n">
         <v>17</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5651,19 +5206,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>4000</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E53" s="1" t="n">
         <v>18</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5671,19 +5226,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>3800</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E54" s="1" t="n">
         <v>18</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5691,19 +5246,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>2800</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E55" s="1" t="n">
         <v>18</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5711,19 +5266,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>4900</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E56" s="1" t="n">
         <v>19</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5731,19 +5286,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>3800</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E57" s="1" t="n">
         <v>19</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5751,19 +5306,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>4300</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E58" s="1" t="n">
         <v>19</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5771,19 +5326,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>4700</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="E59" s="1" t="n">
         <v>20</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5791,19 +5346,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>9900</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E60" s="1" t="n">
         <v>20</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5811,19 +5366,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>3000</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E61" s="1" t="n">
         <v>20</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5831,19 +5386,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>2500</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="E62" s="1" t="n">
         <v>21</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5851,19 +5406,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>2700</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E63" s="1" t="n">
         <v>21</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5871,19 +5426,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>5500</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E64" s="1" t="n">
         <v>21</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5891,19 +5446,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>3300</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="E65" s="1" t="n">
         <v>22</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5911,19 +5466,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>2800</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="E66" s="1" t="n">
         <v>22</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5931,19 +5486,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>3200</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="E67" s="1" t="n">
         <v>22</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5951,19 +5506,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>3800</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="E68" s="1" t="n">
         <v>23</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5971,19 +5526,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>4300</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E69" s="1" t="n">
         <v>23</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5991,19 +5546,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>4700</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="E70" s="1" t="n">
         <v>23</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6011,19 +5566,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>9900</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E71" s="1" t="n">
         <v>24</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6031,19 +5586,19 @@
         <v>71</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>4900</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E72" s="1" t="n">
         <v>24</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6051,19 +5606,19 @@
         <v>72</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>3800</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E73" s="1" t="n">
         <v>24</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6071,19 +5626,19 @@
         <v>73</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>4300</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E74" s="1" t="n">
         <v>25</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6091,19 +5646,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>4700</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="E75" s="1" t="n">
         <v>25</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6111,19 +5666,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C76" s="0" t="n">
         <v>9900</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E76" s="1" t="n">
         <v>25</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6131,19 +5686,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>3000</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E77" s="1" t="n">
         <v>26</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6151,19 +5706,19 @@
         <v>77</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>2500</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="E78" s="1" t="n">
         <v>26</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6171,19 +5726,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>2700</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E79" s="1" t="n">
         <v>26</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6191,19 +5746,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>5500</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E80" s="1" t="n">
         <v>27</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6211,19 +5766,19 @@
         <v>80</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>3300</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="E81" s="1" t="n">
         <v>27</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6231,19 +5786,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C82" s="0" t="n">
         <v>2800</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="E82" s="1" t="n">
         <v>27</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6251,19 +5806,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>3200</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="E83" s="1" t="n">
         <v>28</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6271,19 +5826,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>3800</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="E84" s="1" t="n">
         <v>28</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6291,19 +5846,19 @@
         <v>84</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>4300</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E85" s="1" t="n">
         <v>28</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6311,19 +5866,19 @@
         <v>85</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>4700</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="E86" s="1" t="n">
         <v>29</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6331,19 +5886,19 @@
         <v>86</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C87" s="0" t="n">
         <v>9900</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E87" s="1" t="n">
         <v>29</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6351,19 +5906,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>25900</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E88" s="1" t="n">
         <v>29</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6371,19 +5926,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C89" s="0" t="n">
         <v>4800</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E89" s="1" t="n">
         <v>30</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6391,19 +5946,19 @@
         <v>89</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>4900</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E90" s="1" t="n">
         <v>30</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6411,19 +5966,19 @@
         <v>90</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C91" s="0" t="n">
         <v>3800</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E91" s="1" t="n">
         <v>30</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6431,19 +5986,19 @@
         <v>91</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C92" s="0" t="n">
         <v>5500</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E92" s="1" t="n">
         <v>31</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6451,19 +6006,19 @@
         <v>92</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C93" s="0" t="n">
         <v>3300</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="E93" s="1" t="n">
         <v>31</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6471,19 +6026,19 @@
         <v>93</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C94" s="0" t="n">
         <v>2800</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="E94" s="1" t="n">
         <v>31</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6491,19 +6046,19 @@
         <v>94</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C95" s="0" t="n">
         <v>4000</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E95" s="1" t="n">
         <v>32</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6511,19 +6066,19 @@
         <v>95</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C96" s="0" t="n">
         <v>2500</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="E96" s="1" t="n">
         <v>32</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6531,19 +6086,19 @@
         <v>96</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C97" s="0" t="n">
         <v>2700</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E97" s="1" t="n">
         <v>32</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6551,19 +6106,19 @@
         <v>97</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C98" s="0" t="n">
         <v>5500</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E98" s="1" t="n">
         <v>33</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6571,19 +6126,19 @@
         <v>98</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C99" s="0" t="n">
         <v>3300</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="E99" s="1" t="n">
         <v>33</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6591,19 +6146,19 @@
         <v>99</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C100" s="0" t="n">
         <v>2800</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="E100" s="1" t="n">
         <v>33</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6611,19 +6166,19 @@
         <v>100</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C101" s="0" t="n">
         <v>3200</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="E101" s="1" t="n">
         <v>34</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6631,19 +6186,19 @@
         <v>101</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C102" s="0" t="n">
         <v>3800</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="E102" s="1" t="n">
         <v>34</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6651,19 +6206,19 @@
         <v>102</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C103" s="0" t="n">
         <v>4300</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E103" s="1" t="n">
         <v>34</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6671,19 +6226,19 @@
         <v>103</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C104" s="0" t="n">
         <v>4700</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="E104" s="1" t="n">
         <v>35</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6691,19 +6246,19 @@
         <v>104</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C105" s="0" t="n">
         <v>9900</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E105" s="1" t="n">
         <v>35</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6711,19 +6266,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C106" s="0" t="n">
         <v>25900</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E106" s="1" t="n">
         <v>35</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6731,19 +6286,19 @@
         <v>106</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C107" s="0" t="n">
         <v>4800</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E107" s="1" t="n">
         <v>36</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6751,19 +6306,19 @@
         <v>107</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C108" s="0" t="n">
         <v>4000</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E108" s="1" t="n">
         <v>36</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6771,19 +6326,19 @@
         <v>108</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C109" s="0" t="n">
         <v>3800</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E109" s="1" t="n">
         <v>36</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6791,19 +6346,19 @@
         <v>109</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C110" s="0" t="n">
         <v>2800</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E110" s="1" t="n">
         <v>37</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6811,19 +6366,19 @@
         <v>110</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C111" s="0" t="n">
         <v>4900</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E111" s="1" t="n">
         <v>37</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6831,19 +6386,19 @@
         <v>111</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C112" s="0" t="n">
         <v>3800</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E112" s="1" t="n">
         <v>37</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6851,19 +6406,19 @@
         <v>112</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C113" s="0" t="n">
         <v>4300</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E113" s="1" t="n">
         <v>38</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6871,19 +6426,19 @@
         <v>113</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C114" s="0" t="n">
         <v>4700</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="E114" s="1" t="n">
         <v>38</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6891,19 +6446,19 @@
         <v>114</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C115" s="0" t="n">
         <v>9900</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E115" s="1" t="n">
         <v>38</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6911,19 +6466,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C116" s="0" t="n">
         <v>3000</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E116" s="1" t="n">
         <v>39</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6931,19 +6486,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C117" s="0" t="n">
         <v>2500</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="E117" s="1" t="n">
         <v>39</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6951,19 +6506,19 @@
         <v>117</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C118" s="0" t="n">
         <v>2700</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E118" s="1" t="n">
         <v>39</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6971,19 +6526,19 @@
         <v>118</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C119" s="0" t="n">
         <v>5500</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E119" s="1" t="n">
         <v>40</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6991,19 +6546,19 @@
         <v>119</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C120" s="0" t="n">
         <v>3300</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="E120" s="1" t="n">
         <v>40</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7011,19 +6566,19 @@
         <v>120</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C121" s="0" t="n">
         <v>2800</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="E121" s="1" t="n">
         <v>40</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7031,19 +6586,19 @@
         <v>121</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C122" s="0" t="n">
         <v>3200</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="E122" s="1" t="n">
         <v>41</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7051,19 +6606,19 @@
         <v>122</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C123" s="0" t="n">
         <v>3800</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="E123" s="1" t="n">
         <v>41</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7071,19 +6626,19 @@
         <v>123</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C124" s="0" t="n">
         <v>4300</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E124" s="1" t="n">
         <v>41</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7091,19 +6646,19 @@
         <v>124</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C125" s="0" t="n">
         <v>4700</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="E125" s="1" t="n">
         <v>42</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7111,19 +6666,19 @@
         <v>125</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C126" s="0" t="n">
         <v>9900</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E126" s="1" t="n">
         <v>42</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7131,19 +6686,19 @@
         <v>126</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C127" s="0" t="n">
         <v>4900</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E127" s="1" t="n">
         <v>42</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7151,19 +6706,19 @@
         <v>127</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C128" s="0" t="n">
         <v>3800</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E128" s="1" t="n">
         <v>43</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7171,19 +6726,19 @@
         <v>128</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C129" s="0" t="n">
         <v>4300</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E129" s="1" t="n">
         <v>43</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7191,19 +6746,19 @@
         <v>129</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C130" s="0" t="n">
         <v>4700</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="E130" s="1" t="n">
         <v>43</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7211,19 +6766,19 @@
         <v>130</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C131" s="0" t="n">
         <v>9900</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E131" s="1" t="n">
         <v>44</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7231,19 +6786,19 @@
         <v>131</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C132" s="0" t="n">
         <v>3000</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="E132" s="1" t="n">
         <v>44</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7251,19 +6806,19 @@
         <v>132</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C133" s="0" t="n">
         <v>2500</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="E133" s="1" t="n">
         <v>44</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7271,19 +6826,19 @@
         <v>133</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C134" s="0" t="n">
         <v>2700</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E134" s="1" t="n">
         <v>45</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7291,19 +6846,19 @@
         <v>134</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C135" s="0" t="n">
         <v>5500</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E135" s="1" t="n">
         <v>45</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7311,19 +6866,19 @@
         <v>135</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C136" s="0" t="n">
         <v>3300</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="E136" s="1" t="n">
         <v>45</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7331,19 +6886,19 @@
         <v>136</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C137" s="0" t="n">
         <v>2800</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="E137" s="1" t="n">
         <v>46</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7351,19 +6906,19 @@
         <v>137</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C138" s="0" t="n">
         <v>3200</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="E138" s="1" t="n">
         <v>46</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7371,19 +6926,19 @@
         <v>138</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C139" s="0" t="n">
         <v>3800</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="E139" s="1" t="n">
         <v>46</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7391,19 +6946,19 @@
         <v>139</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C140" s="0" t="n">
         <v>4800</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E140" s="1" t="n">
         <v>47</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7411,19 +6966,19 @@
         <v>140</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C141" s="0" t="n">
         <v>4000</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E141" s="1" t="n">
         <v>47</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7431,19 +6986,19 @@
         <v>141</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C142" s="0" t="n">
         <v>2700</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E142" s="1" t="n">
         <v>47</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7451,19 +7006,19 @@
         <v>142</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C143" s="0" t="n">
         <v>5500</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E143" s="1" t="n">
         <v>48</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7471,19 +7026,19 @@
         <v>143</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C144" s="0" t="n">
         <v>3300</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="E144" s="1" t="n">
         <v>48</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7491,19 +7046,19 @@
         <v>144</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C145" s="0" t="n">
         <v>2800</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="E145" s="1" t="n">
         <v>48</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7511,19 +7066,19 @@
         <v>145</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C146" s="0" t="n">
         <v>3200</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="E146" s="1" t="n">
         <v>49</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7531,19 +7086,19 @@
         <v>146</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C147" s="0" t="n">
         <v>3800</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="E147" s="1" t="n">
         <v>49</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7551,19 +7106,19 @@
         <v>147</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C148" s="0" t="n">
         <v>4300</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E148" s="1" t="n">
         <v>49</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7571,19 +7126,19 @@
         <v>148</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C149" s="0" t="n">
         <v>4700</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="E149" s="1" t="n">
         <v>50</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7591,19 +7146,19 @@
         <v>149</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C150" s="0" t="n">
         <v>9900</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E150" s="1" t="n">
         <v>50</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7611,19 +7166,19 @@
         <v>150</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C151" s="0" t="n">
         <v>25900</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="E151" s="1" t="n">
         <v>50</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7631,19 +7186,19 @@
         <v>151</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C152" s="0" t="n">
         <v>4800</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E152" s="1" t="n">
         <v>51</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7651,19 +7206,19 @@
         <v>152</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C153" s="0" t="n">
         <v>4000</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E153" s="1" t="n">
         <v>51</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7671,19 +7226,19 @@
         <v>153</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C154" s="0" t="n">
         <v>3800</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E154" s="1" t="n">
         <v>51</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7691,19 +7246,19 @@
         <v>154</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C155" s="0" t="n">
         <v>2800</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E155" s="1" t="n">
         <v>52</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7711,19 +7266,19 @@
         <v>155</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C156" s="0" t="n">
         <v>4900</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E156" s="1" t="n">
         <v>52</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7731,19 +7286,19 @@
         <v>156</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C157" s="0" t="n">
         <v>3800</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E157" s="1" t="n">
         <v>52</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7751,19 +7306,19 @@
         <v>157</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C158" s="0" t="n">
         <v>2700</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E158" s="1" t="n">
         <v>53</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7771,19 +7326,19 @@
         <v>158</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C159" s="0" t="n">
         <v>5500</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E159" s="1" t="n">
         <v>53</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7791,19 +7346,19 @@
         <v>159</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C160" s="0" t="n">
         <v>3300</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="E160" s="1" t="n">
         <v>53</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7811,19 +7366,19 @@
         <v>160</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C161" s="0" t="n">
         <v>2800</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="E161" s="1" t="n">
         <v>54</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7831,19 +7386,19 @@
         <v>161</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C162" s="0" t="n">
         <v>3200</v>
       </c>
       <c r="D162" s="0" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="E162" s="1" t="n">
         <v>54</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7851,19 +7406,19 @@
         <v>162</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C163" s="0" t="n">
         <v>3800</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="E163" s="1" t="n">
         <v>54</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -7888,17 +7443,17 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="26.85"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7906,7 +7461,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7914,7 +7469,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7922,7 +7477,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -7947,7 +7502,7 @@
       <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.36"/>
@@ -7960,31 +7515,31 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>494</v>
+        <v>496</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>497</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7995,15 +7550,15 @@
         <v>2</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>504</v>
-      </c>
-      <c r="F2" s="10" t="n">
+        <v>506</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="F2" s="11" t="n">
         <v>44941.6341782407</v>
       </c>
       <c r="I2" s="0" t="n">
@@ -8018,13 +7573,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>506</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>507</v>
+        <v>509</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>510</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>7</v>
@@ -8038,13 +7593,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>509</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>510</v>
+        <v>512</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>513</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>32</v>
@@ -8058,13 +7613,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>512</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>513</v>
+        <v>515</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>516</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>91</v>
@@ -8078,13 +7633,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>516</v>
+        <v>518</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>519</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>4</v>
@@ -8098,13 +7653,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>518</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>519</v>
+        <v>521</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>522</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>25</v>
@@ -8118,13 +7673,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>521</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>522</v>
+        <v>524</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>525</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>10</v>
@@ -8138,13 +7693,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>524</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>525</v>
+        <v>527</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>528</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>17</v>
@@ -8158,13 +7713,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>527</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>528</v>
+        <v>530</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>531</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>50</v>
@@ -8178,13 +7733,13 @@
         <v>3</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>530</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>531</v>
+        <v>533</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>534</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>21</v>
@@ -8198,13 +7753,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>533</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>534</v>
+        <v>536</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>537</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>9</v>
@@ -8218,13 +7773,13 @@
         <v>2</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>536</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>507</v>
+        <v>539</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>510</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>23</v>
@@ -8238,13 +7793,13 @@
         <v>2</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>538</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>539</v>
+        <v>541</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>542</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>67</v>
@@ -8258,13 +7813,13 @@
         <v>2</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>541</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>542</v>
+        <v>544</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>545</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>11</v>
@@ -8278,13 +7833,13 @@
         <v>3</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>544</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>545</v>
+        <v>547</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>548</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>50</v>
@@ -8292,7 +7847,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="1"/>
-      <c r="E17" s="9"/>
+      <c r="E17" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -8316,11 +7871,11 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="13" width="19.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="14" width="19.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="45.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="52.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.81"/>
@@ -8329,25 +7884,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>493</v>
+        <v>549</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>496</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>547</v>
+        <v>498</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>550</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8358,11 +7913,11 @@
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>502</v>
-      </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="9" t="s">
-        <v>504</v>
+        <v>505</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="10" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8371,11 +7926,11 @@
       </c>
       <c r="B3" s="0"/>
       <c r="C3" s="0" t="s">
-        <v>505</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="9" t="s">
-        <v>507</v>
+        <v>508</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="10" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8384,13 +7939,13 @@
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="0" t="s">
-        <v>508</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>551</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>552</v>
+        <v>511</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>554</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8399,13 +7954,13 @@
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="0" t="s">
-        <v>511</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>553</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>554</v>
+        <v>514</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>556</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8414,13 +7969,13 @@
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0" t="s">
-        <v>514</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>555</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>556</v>
+        <v>517</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8429,11 +7984,11 @@
       </c>
       <c r="B7" s="0"/>
       <c r="C7" s="0" t="s">
-        <v>517</v>
-      </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="9" t="s">
-        <v>519</v>
+        <v>520</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="10" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8442,11 +7997,11 @@
       </c>
       <c r="B8" s="0"/>
       <c r="C8" s="0" t="s">
-        <v>520</v>
-      </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="9" t="s">
-        <v>522</v>
+        <v>523</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="10" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8455,13 +8010,13 @@
       </c>
       <c r="B9" s="0"/>
       <c r="C9" s="0" t="s">
-        <v>523</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>557</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>558</v>
+        <v>526</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>560</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8470,13 +8025,13 @@
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="0" t="s">
-        <v>526</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>559</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>560</v>
+        <v>529</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>562</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8485,13 +8040,13 @@
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0" t="s">
-        <v>529</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>561</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>562</v>
+        <v>532</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>564</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8500,13 +8055,13 @@
       </c>
       <c r="B12" s="0"/>
       <c r="C12" s="0" t="s">
-        <v>532</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>564</v>
+        <v>535</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>566</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8515,11 +8070,11 @@
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="9" t="s">
-        <v>507</v>
+        <v>538</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="10" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8528,11 +8083,11 @@
       </c>
       <c r="B14" s="0"/>
       <c r="C14" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="9" t="s">
-        <v>522</v>
+        <v>540</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="10" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8541,11 +8096,11 @@
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="0" t="s">
-        <v>540</v>
-      </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="9" t="s">
-        <v>542</v>
+        <v>543</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="10" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8554,13 +8109,13 @@
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="0" t="s">
-        <v>543</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>545</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>565</v>
+        <v>546</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>548</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8613,7 +8168,7 @@
       <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.94"/>
@@ -8627,516 +8182,516 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>576</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>577</v>
+        <v>579</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>580</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>581</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>582</v>
+        <v>584</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>585</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>583</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>584</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>585</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>586</v>
+        <v>588</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>589</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>589</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>590</v>
+        <v>592</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>593</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>593</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>594</v>
+        <v>596</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>597</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>6</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>597</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>598</v>
+        <v>600</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>601</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>7</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>601</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>602</v>
+        <v>604</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>605</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>8</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>605</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>606</v>
+        <v>608</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>609</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>9</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>609</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>610</v>
+        <v>612</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>613</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>613</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>614</v>
+        <v>616</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>617</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>11</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>617</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>618</v>
+        <v>620</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>621</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>12</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>621</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>622</v>
+        <v>624</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>625</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>13</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>625</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>626</v>
+        <v>628</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>629</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>14</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>629</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>630</v>
+        <v>632</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>633</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>15</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>633</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>634</v>
+        <v>636</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>637</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>16</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>638</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>639</v>
+        <v>641</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>642</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>17</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>643</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>644</v>
+        <v>646</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>647</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>18</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>648</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>649</v>
+        <v>651</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>652</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>19</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>653</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>654</v>
+        <v>656</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>657</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>20</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>658</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>659</v>
+        <v>661</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>662</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D22" s="19"/>
+      <c r="D22" s="20"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D23" s="19"/>
+      <c r="D23" s="20"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D24" s="19"/>
+      <c r="D24" s="20"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D25" s="19"/>
+      <c r="D25" s="20"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D26" s="19"/>
+      <c r="D26" s="20"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" display="yujinan@naver.com"/>
     <hyperlink ref="F4" r:id="rId2" display="jiminpark@gmail.com"/>
-    <hyperlink ref="F5" r:id="rId3" display="cheyoung@naver"/>
+    <hyperlink ref="F5" r:id="rId3" display="cheyoung@naver.com"/>
     <hyperlink ref="F7" r:id="rId4" display="jisookim@gmail.com"/>
     <hyperlink ref="F8" r:id="rId5" display="tzehyung@naver.com"/>
     <hyperlink ref="F9" r:id="rId6" display="oneyoung@daum.net"/>
@@ -9174,7 +8729,7 @@
       <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="15.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="17.47"/>
@@ -9183,22 +8738,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9206,7 +8761,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>2</v>
@@ -9220,7 +8775,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>3</v>
@@ -9234,7 +8789,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>7</v>
@@ -9248,7 +8803,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>8</v>
@@ -9262,7 +8817,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>9</v>
@@ -9276,7 +8831,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>10</v>
@@ -9290,7 +8845,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>11</v>
@@ -9304,7 +8859,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>12</v>
@@ -9318,7 +8873,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>19</v>
@@ -9332,7 +8887,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>20</v>
@@ -9346,7 +8901,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>21</v>
@@ -9360,7 +8915,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>25</v>
@@ -9374,7 +8929,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>26</v>
@@ -9388,7 +8943,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>22</v>
@@ -9402,7 +8957,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>23</v>
@@ -9416,7 +8971,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>24</v>
@@ -9430,7 +8985,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>34</v>
@@ -9444,7 +8999,7 @@
         <v>7</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>35</v>
@@ -9458,7 +9013,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>36</v>
@@ -9472,7 +9027,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>76</v>
@@ -9486,7 +9041,7 @@
         <v>8</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>77</v>
@@ -9500,7 +9055,7 @@
         <v>9</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>1</v>
@@ -9514,7 +9069,7 @@
         <v>9</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>2</v>
@@ -9528,7 +9083,7 @@
         <v>9</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>3</v>
@@ -9542,7 +9097,7 @@
         <v>10</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>145</v>
@@ -9556,7 +9111,7 @@
         <v>10</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>146</v>
@@ -9570,7 +9125,7 @@
         <v>11</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>147</v>
@@ -9584,7 +9139,7 @@
         <v>11</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>157</v>
@@ -9598,7 +9153,7 @@
         <v>11</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>158</v>
@@ -9612,7 +9167,7 @@
         <v>12</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>22</v>
@@ -9626,7 +9181,7 @@
         <v>12</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>23</v>
